--- a/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>AGFY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1700</v>
       </c>
       <c r="H8" s="3">
         <v>1000</v>
       </c>
       <c r="I8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-300</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>5600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F17" s="3">
         <v>5400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,16 +1075,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1036,98 +1103,122 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,16 +1491,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1384,40 +1523,52 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,26 +1705,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,26 +1771,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,26 +1806,32 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F44" s="3">
         <v>3900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3800</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,26 +1841,32 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,26 +1876,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F46" s="3">
         <v>10200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1911,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,26 +1946,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,17 +1996,17 @@
         <v>2300</v>
       </c>
       <c r="E49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,26 +2156,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>161500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F54" s="3">
         <v>13500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,26 +2225,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,23 +2256,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2024,26 +2291,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,26 +2326,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F60" s="3">
         <v>8200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,23 +2361,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2111,20 +2396,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,26 +2536,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,26 +2726,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,26 +2866,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F76" s="3">
         <v>4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,10 +3047,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -2661,11 +3058,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F100" s="3">
         <v>5800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>129800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>AGFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>-200</v>
       </c>
       <c r="G10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-300</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,20 +927,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F14" s="3">
         <v>5600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -936,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>17300</v>
       </c>
       <c r="E17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F17" s="3">
         <v>14100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-5500</v>
       </c>
       <c r="E18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,20 +1110,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1109,72 +1143,78 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-5200</v>
       </c>
       <c r="E21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-5400</v>
       </c>
       <c r="E26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-5600</v>
       </c>
       <c r="E27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,20 +1564,23 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1529,46 +1599,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-5600</v>
       </c>
       <c r="E33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-5600</v>
       </c>
       <c r="E35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,29 +1793,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E41" s="3">
         <v>137900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,29 +1867,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9200</v>
+        <v>15200</v>
       </c>
       <c r="E43" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,29 +1905,32 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E44" s="3">
         <v>8500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3900</v>
       </c>
       <c r="G44" s="3">
         <v>3900</v>
       </c>
       <c r="H44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1847,29 +1943,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>38900</v>
       </c>
       <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,29 +1981,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E46" s="3">
         <v>158100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,31 +2019,34 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>15200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1952,29 +2057,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="E48" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,13 +2095,16 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
         <v>2300</v>
@@ -2002,13 +2113,13 @@
         <v>2300</v>
       </c>
       <c r="G49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>2200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E54" s="3">
         <v>161500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,20 +2367,20 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,26 +2393,29 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>12600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,29 +2431,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13300</v>
+        <v>18900</v>
       </c>
       <c r="E59" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F59" s="3">
         <v>13700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,29 +2469,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E60" s="3">
         <v>14200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2379,14 +2522,14 @@
         <v>800</v>
       </c>
       <c r="F61" s="3">
+        <v>800</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2402,23 +2545,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2697,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,29 +2903,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,29 +3055,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E76" s="3">
         <v>145900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-5600</v>
       </c>
       <c r="E81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,13 +3230,14 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3053,7 +3252,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3064,11 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,17 +3512,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -3310,25 +3531,28 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,17 +3624,20 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -3415,25 +3645,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>137200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E102" s="3">
         <v>129800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>AGFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E8" s="3">
         <v>11800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E9" s="3">
         <v>11300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-200</v>
       </c>
       <c r="G10" s="3">
         <v>-200</v>
       </c>
       <c r="H10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-300</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,37 +877,40 @@
         <v>800</v>
       </c>
       <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,14 +959,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -959,8 +979,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E17" s="3">
         <v>17300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1123,11 +1157,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1146,78 +1180,84 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1225,46 +1265,52 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1579,11 +1649,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1602,49 +1672,55 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,32 +1880,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E41" s="3">
         <v>79800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>137900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,31 +1919,34 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>62300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>35900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1870,32 +1960,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E43" s="3">
         <v>15200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,32 +2001,35 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E44" s="3">
         <v>9400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3900</v>
       </c>
       <c r="H44" s="3">
         <v>3900</v>
       </c>
       <c r="I44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J44" s="3">
         <v>3800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,32 +2042,35 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38900</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,32 +2083,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E46" s="3">
         <v>143300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>158100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,17 +2124,20 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E47" s="3">
         <v>15200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2153,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2060,32 +2165,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
       </c>
       <c r="H48" s="3">
+        <v>900</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2107,7 +2218,7 @@
         <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
         <v>2300</v>
@@ -2116,13 +2227,13 @@
         <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>2200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2411,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>159300</v>
+      </c>
+      <c r="E54" s="3">
         <v>163500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>161500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,32 +2488,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>8700</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2408,17 +2542,17 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>12600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,32 +2568,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E59" s="3">
         <v>18900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,32 +2609,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2525,14 +2668,14 @@
         <v>800</v>
       </c>
       <c r="G61" s="3">
+        <v>800</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2548,26 +2691,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,32 +2855,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,32 +3077,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,32 +3241,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E76" s="3">
         <v>141400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>145900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,16 +3429,17 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3255,7 +3454,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3266,11 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,20 +3733,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -3534,25 +3755,28 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,20 +3854,23 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -3648,25 +3878,28 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>137200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>129800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>AGFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E8" s="3">
         <v>15800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E9" s="3">
         <v>16100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-200</v>
       </c>
       <c r="H10" s="3">
         <v>-200</v>
       </c>
       <c r="I10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-300</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="3">
         <v>800</v>
       </c>
       <c r="F12" s="3">
+        <v>800</v>
+      </c>
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,14 +981,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -982,8 +1001,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E17" s="3">
         <v>25600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1160,11 +1193,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1183,52 +1216,58 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,29 +1277,29 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1268,72 +1307,78 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1652,11 +1721,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1675,52 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E41" s="3">
         <v>44700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>79800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>137900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,20 +2008,23 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E42" s="3">
         <v>62300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>35900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,8 +2037,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1963,35 +2052,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E43" s="3">
         <v>12600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,35 +2096,38 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E44" s="3">
         <v>10100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3900</v>
       </c>
       <c r="I44" s="3">
         <v>3900</v>
       </c>
       <c r="J44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2045,35 +2140,38 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E46" s="3">
         <v>132900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>143300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>158100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,20 +2228,23 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E47" s="3">
         <v>19300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>15200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2156,8 +2260,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2168,35 +2272,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
       </c>
       <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,19 +2316,22 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
+        <v>64200</v>
       </c>
       <c r="E49" s="3">
         <v>2200</v>
       </c>
       <c r="F49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G49" s="3">
         <v>2300</v>
@@ -2230,13 +2340,13 @@
         <v>2300</v>
       </c>
       <c r="I49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>2200</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,31 +2448,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E54" s="3">
         <v>159300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>163500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>161500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,35 +2618,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,13 +2660,16 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2545,17 +2678,17 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>12600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,35 +2704,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E59" s="3">
         <v>14100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,35 +2748,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E60" s="3">
         <v>23000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,13 +2792,16 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
@@ -2671,14 +2813,14 @@
         <v>800</v>
       </c>
       <c r="H61" s="3">
+        <v>800</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2694,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E66" s="3">
         <v>25000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E76" s="3">
         <v>134300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>141400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>145900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,19 +3627,20 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3457,7 +3655,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3468,11 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,23 +3953,24 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3758,25 +3978,28 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,23 +4083,26 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -3881,25 +4110,28 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>137200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-58000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>129800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>AGFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F8" s="3">
         <v>25300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1700</v>
       </c>
       <c r="M8" s="3">
         <v>1000</v>
       </c>
       <c r="N8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F9" s="3">
         <v>19600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>16100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F10" s="3">
         <v>5700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-300</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +1003,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>69900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -984,17 +1024,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>5600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,17 +1044,23 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F17" s="3">
         <v>38600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>25600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>17300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>14100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13300</v>
+        <v>-91600</v>
       </c>
       <c r="E18" s="3">
         <v>-9800</v>
       </c>
       <c r="F18" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,16 +1244,18 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1196,14 +1264,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1219,55 +1287,67 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-91500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-12500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1280,93 +1360,105 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1380,11 +1472,11 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-13000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,16 +1840,22 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1724,14 +1864,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1747,55 +1887,67 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-13100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-13100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2139,43 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F41" s="3">
         <v>12000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>44700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>79800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>137900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,26 +2185,32 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F42" s="3">
         <v>44600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>62300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>35900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,11 +2220,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2055,41 +2235,47 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F43" s="3">
         <v>8100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>12600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>15200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>9400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,41 +2285,47 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F44" s="3">
         <v>20500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>10100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>9400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>8500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2143,41 +2335,47 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,41 +2385,47 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>147500</v>
+      </c>
+      <c r="F46" s="3">
         <v>86700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>132900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>143300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>158100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>18600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,26 +2435,32 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F47" s="3">
         <v>22300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>19300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>15200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2263,11 +2473,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2275,41 +2485,47 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F48" s="3">
         <v>7700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,41 +2535,47 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>70400</v>
+      </c>
+      <c r="F49" s="3">
         <v>64200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2300</v>
       </c>
       <c r="I49" s="3">
         <v>2300</v>
       </c>
       <c r="J49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,20 +2685,26 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,11 +2717,11 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2785,47 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>264500</v>
+      </c>
+      <c r="F54" s="3">
         <v>182000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>159300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>163500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>161500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>13500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2879,43 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,38 +2925,44 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>12600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,41 +2975,47 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F59" s="3">
         <v>33200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>13700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,41 +3025,47 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F60" s="3">
         <v>43600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>23000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>19900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>27000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,19 +3075,25 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>45300</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>51200</v>
       </c>
       <c r="F61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>800</v>
@@ -2816,17 +3102,17 @@
         <v>800</v>
       </c>
       <c r="I61" s="3">
+        <v>800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>800</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +3125,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3325,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>94400</v>
+      </c>
+      <c r="F66" s="3">
         <v>45000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>25000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>22000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>28500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3595,47 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-161300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-59000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-45700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-36000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-30300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-26500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-10800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3795,47 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>170100</v>
+      </c>
+      <c r="F76" s="3">
         <v>137100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>134300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>141400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>145900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-13100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,25 +4024,27 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3658,10 +4056,10 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3669,11 +4067,17 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F91" s="3">
         <v>1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-100</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-20100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-32800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-51700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>90700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>137200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>7200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-32700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-35100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-58000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>129800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>AGFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
         <v>19300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E9" s="3">
         <v>17700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-200</v>
       </c>
       <c r="K10" s="3">
         <v>-200</v>
       </c>
       <c r="L10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-300</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>800</v>
       </c>
       <c r="H12" s="3">
         <v>800</v>
       </c>
       <c r="I12" s="3">
+        <v>800</v>
+      </c>
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,17 +1026,20 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E14" s="3">
         <v>69900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1030,14 +1050,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1050,8 +1070,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E17" s="3">
         <v>110900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-91600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,20 +1279,21 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1270,11 +1304,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1293,61 +1327,67 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-91500</v>
+        <v>-45900</v>
       </c>
       <c r="E21" s="3">
-        <v>-7800</v>
+        <v>-92300</v>
       </c>
       <c r="F21" s="3">
-        <v>-12000</v>
+        <v>-8000</v>
       </c>
       <c r="G21" s="3">
-        <v>-9100</v>
+        <v>-12400</v>
       </c>
       <c r="H21" s="3">
-        <v>-5200</v>
+        <v>-9600</v>
       </c>
       <c r="I21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1366,29 +1406,29 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1396,72 +1436,78 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-93500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1478,8 +1524,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-93400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-93400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,20 +1913,23 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1870,11 +1940,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1893,61 +1963,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-93400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-93400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2227,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>18600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>137900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,29 +2278,32 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>11300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>38200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>44600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>62300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>35900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,8 +2316,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2241,44 +2331,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E43" s="3">
         <v>12100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,44 +2384,47 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E44" s="3">
         <v>41900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3900</v>
       </c>
       <c r="L44" s="3">
         <v>3900</v>
       </c>
       <c r="M44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N44" s="3">
         <v>3800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2341,44 +2437,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E45" s="3">
         <v>34500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>36200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,44 +2490,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E46" s="3">
         <v>118400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>147500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>86700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>132900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>143300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>158100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,29 +2543,32 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E47" s="3">
         <v>35100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>19300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,8 +2584,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2491,44 +2596,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E48" s="3">
         <v>14800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>900</v>
       </c>
       <c r="K48" s="3">
         <v>900</v>
       </c>
       <c r="L48" s="3">
+        <v>900</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2550,19 +2661,19 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>70400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>64200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2200</v>
       </c>
       <c r="H49" s="3">
         <v>2200</v>
       </c>
       <c r="I49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J49" s="3">
         <v>2300</v>
@@ -2571,13 +2682,13 @@
         <v>2300</v>
       </c>
       <c r="L49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="M49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>2200</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,23 +2808,26 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2723,8 +2843,8 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E54" s="3">
         <v>171200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>264500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>182000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>159300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>163500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>161500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3011,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,22 +3062,25 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>9800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2955,17 +3089,17 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>12600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,44 +3115,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E59" s="3">
         <v>32100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3168,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E60" s="3">
         <v>46100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,22 +3221,25 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E61" s="3">
         <v>45300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>51200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>800</v>
@@ -3108,14 +3251,14 @@
         <v>800</v>
       </c>
       <c r="K61" s="3">
+        <v>800</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3131,38 +3274,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1000</v>
       </c>
       <c r="F62" s="3">
         <v>1000</v>
       </c>
       <c r="G62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E66" s="3">
         <v>93600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>94400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-207500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-161300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E76" s="3">
         <v>77600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>170100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>137100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>134300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>141400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>145900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-93400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,28 +4224,29 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4062,7 +4261,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4073,11 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-34200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,32 +4616,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -4429,25 +4650,28 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,32 +4773,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4579,25 +4809,28 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>90700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>137200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-58000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>129800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGFY_QTR_FIN.xlsx
@@ -4632,7 +4632,7 @@
         <v>-3700</v>
       </c>
       <c r="G91" s="3">
-        <v>1300</v>
+        <v>-1200</v>
       </c>
       <c r="H91" s="3">
         <v>-2400</v>
